--- a/AAII_Financials/Quarterly/ACGX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACGX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/ACGX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACGX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>ACGX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,162 +665,210 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I8" s="3">
         <v>2800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="J8" s="3">
         <v>5300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="K8" s="3">
         <v>2500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="L8" s="3">
         <v>3800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="M8" s="3">
         <v>3400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="N8" s="3">
         <v>3100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="O8" s="3">
         <v>5000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="P8" s="3">
         <v>4500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="Q8" s="3">
         <v>4600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="R8" s="3">
         <v>9300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="S8" s="3">
         <v>5100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="T8" s="3">
         <v>3400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="U8" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I9" s="3">
         <v>2100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="J9" s="3">
         <v>3900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="K9" s="3">
         <v>1800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="L9" s="3">
         <v>1700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="M9" s="3">
         <v>2500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="N9" s="3">
         <v>2500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="O9" s="3">
         <v>4100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="P9" s="3">
         <v>3600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="Q9" s="3">
         <v>3700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="R9" s="3">
         <v>7500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="S9" s="3">
         <v>3900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="T9" s="3">
         <v>2300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="U9" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,43 +876,58 @@
         <v>700</v>
       </c>
       <c r="E10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>600</v>
+      </c>
+      <c r="H10" s="3">
+        <v>700</v>
+      </c>
+      <c r="I10" s="3">
+        <v>700</v>
+      </c>
+      <c r="J10" s="3">
         <v>1400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="L10" s="3">
         <v>2100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="M10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="O10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="P10" s="3">
         <v>900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="Q10" s="3">
         <v>900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="R10" s="3">
         <v>1800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="S10" s="3">
         <v>1200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="T10" s="3">
         <v>1100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="U10" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +944,13 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +993,23 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1052,23 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1111,23 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1170,23 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,60 +1200,80 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="J17" s="3">
         <v>5300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="L17" s="3">
         <v>3700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="M17" s="3">
         <v>3200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="N17" s="3">
         <v>3500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="O17" s="3">
         <v>5000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="P17" s="3">
         <v>4700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="Q17" s="3">
         <v>4500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="R17" s="3">
         <v>8900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="S17" s="3">
         <v>4700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="T17" s="3">
         <v>3400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="U17" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1137,31 +1285,46 @@
         <v>200</v>
       </c>
       <c r="I18" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>100</v>
       </c>
       <c r="M18" s="3">
+        <v>200</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,13 +1341,18 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1193,37 +1361,52 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1449,23 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,8 +1508,23 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1319,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1328,34 +1541,49 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1626,23 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1685,23 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1451,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1460,34 +1718,49 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1495,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1504,34 +1777,49 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1862,23 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1921,23 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1980,23 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,13 +2039,28 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1721,37 +2069,52 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1759,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1768,34 +2131,49 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +2216,23 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1847,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1856,83 +2249,113 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="H38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2372,13 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,40 +2395,45 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
       <c r="G41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>200</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
@@ -2009,98 +2442,143 @@
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>200</v>
+      </c>
+      <c r="S41" s="3">
+        <v>200</v>
+      </c>
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3">
         <v>700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="P42" s="3">
         <v>700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="Q42" s="3">
         <v>700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="R42" s="3">
         <v>600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="S42" s="3">
         <v>600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="T42" s="3">
         <v>600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="U42" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F43" s="3">
         <v>2000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J43" s="3">
         <v>2100</v>
       </c>
-      <c r="G43" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>2400</v>
-      </c>
       <c r="K43" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="L43" s="3">
         <v>2300</v>
       </c>
       <c r="M43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R43" s="3">
         <v>2500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="S43" s="3">
         <v>2800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="T43" s="3">
         <v>1900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="U43" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2108,48 +2586,63 @@
         <v>1200</v>
       </c>
       <c r="E44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F44" s="3">
+        <v>800</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J44" s="3">
         <v>1800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="K44" s="3">
         <v>1900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="L44" s="3">
         <v>1700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="M44" s="3">
         <v>1800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="N44" s="3">
         <v>1700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="O44" s="3">
         <v>1600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="P44" s="3">
         <v>1500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="Q44" s="3">
         <v>1400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="R44" s="3">
         <v>1300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="S44" s="3">
         <v>1400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="T44" s="3">
         <v>1500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="U44" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
@@ -2161,130 +2654,175 @@
         <v>400</v>
       </c>
       <c r="H45" s="3">
+        <v>500</v>
+      </c>
+      <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>400</v>
+      </c>
+      <c r="K45" s="3">
+        <v>400</v>
+      </c>
+      <c r="L45" s="3">
+        <v>400</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G46" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I46" s="3">
         <v>3800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="J46" s="3">
         <v>4400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="K46" s="3">
         <v>4500</v>
-      </c>
-      <c r="G46" s="3">
-        <v>4600</v>
-      </c>
-      <c r="H46" s="3">
-        <v>4300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J46" s="3">
-        <v>4800</v>
-      </c>
-      <c r="K46" s="3">
-        <v>4300</v>
       </c>
       <c r="L46" s="3">
         <v>4600</v>
       </c>
       <c r="M46" s="3">
+        <v>4300</v>
+      </c>
+      <c r="N46" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O46" s="3">
+        <v>4800</v>
+      </c>
+      <c r="P46" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Q46" s="3">
         <v>4600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="R46" s="3">
+        <v>4600</v>
+      </c>
+      <c r="S46" s="3">
         <v>4900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="T46" s="3">
         <v>4100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="U46" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="F47" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="G47" s="3">
         <v>900</v>
       </c>
       <c r="H47" s="3">
+        <v>900</v>
+      </c>
+      <c r="I47" s="3">
+        <v>900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>900</v>
+      </c>
+      <c r="K47" s="3">
+        <v>900</v>
+      </c>
+      <c r="L47" s="3">
+        <v>900</v>
+      </c>
+      <c r="M47" s="3">
         <v>800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="N47" s="3">
         <v>700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="O47" s="3">
         <v>200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="P47" s="3">
         <v>200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="Q47" s="3">
         <v>100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="R47" s="3">
         <v>100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="S47" s="3">
         <v>200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="T47" s="3">
         <v>100</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
@@ -2293,7 +2831,7 @@
         <v>400</v>
       </c>
       <c r="H48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I48" s="3">
         <v>400</v>
@@ -2311,36 +2849,51 @@
         <v>300</v>
       </c>
       <c r="N48" s="3">
+        <v>400</v>
+      </c>
+      <c r="O48" s="3">
+        <v>400</v>
+      </c>
+      <c r="P48" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>400</v>
+      </c>
+      <c r="R48" s="3">
         <v>300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="S48" s="3">
         <v>300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="T48" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3">
-        <v>1200</v>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F49" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1200</v>
+        <v>100</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J49" s="3">
         <v>1200</v>
@@ -2363,8 +2916,23 @@
       <c r="P49" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U49" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2975,23 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,19 +3034,34 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -2472,31 +3070,46 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
+        <v>100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>100</v>
+      </c>
+      <c r="K52" s="3">
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
+        <v>100</v>
+      </c>
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="R52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="S52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="T52" s="3">
         <v>200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="U52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +3152,82 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I54" s="3">
         <v>5200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="J54" s="3">
         <v>7100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="K54" s="3">
         <v>7200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="L54" s="3">
         <v>7200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="M54" s="3">
         <v>6800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="N54" s="3">
         <v>6000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="O54" s="3">
         <v>6900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="P54" s="3">
         <v>6400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="Q54" s="3">
         <v>6700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="R54" s="3">
         <v>6600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="S54" s="3">
         <v>7000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="T54" s="3">
         <v>5900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="U54" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +3244,13 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +3267,13 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,98 +3281,128 @@
         <v>1500</v>
       </c>
       <c r="E57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2000</v>
       </c>
       <c r="L57" s="3">
         <v>2000</v>
       </c>
       <c r="M57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R57" s="3">
         <v>1900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="S57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="T57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="U57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F58" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="G58" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="H58" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="I58" s="3">
         <v>1000</v>
       </c>
       <c r="J58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="Q58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="R58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="S58" s="3">
         <v>900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="T58" s="3">
         <v>900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="U58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
+      <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>200</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>8</v>
@@ -2730,73 +3413,103 @@
       <c r="I59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="U59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J60" s="3">
         <v>2800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3200</v>
       </c>
       <c r="K60" s="3">
         <v>2900</v>
       </c>
       <c r="L60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O60" s="3">
         <v>3200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R60" s="3">
         <v>3100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="S60" s="3">
         <v>3300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="T60" s="3">
         <v>2800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="U60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2807,48 +3520,63 @@
         <v>200</v>
       </c>
       <c r="F61" s="3">
+        <v>300</v>
+      </c>
+      <c r="G61" s="3">
+        <v>100</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>200</v>
-      </c>
-      <c r="H61" s="3">
-        <v>300</v>
-      </c>
-      <c r="I61" s="3">
-        <v>300</v>
-      </c>
-      <c r="J61" s="3">
-        <v>300</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
       </c>
       <c r="L61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M61" s="3">
         <v>300</v>
       </c>
       <c r="N61" s="3">
+        <v>300</v>
+      </c>
+      <c r="O61" s="3">
+        <v>300</v>
+      </c>
+      <c r="P61" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>300</v>
+      </c>
+      <c r="R61" s="3">
+        <v>300</v>
+      </c>
+      <c r="S61" s="3">
         <v>600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="T61" s="3">
         <v>600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="U61" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
@@ -2856,23 +3584,23 @@
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
@@ -2880,11 +3608,26 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3670,23 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3729,23 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3788,82 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="J66" s="3">
         <v>3000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3500</v>
       </c>
       <c r="K66" s="3">
         <v>3100</v>
       </c>
       <c r="L66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O66" s="3">
         <v>3500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q66" s="3">
         <v>3500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="R66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S66" s="3">
         <v>3900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="T66" s="3">
         <v>3400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="U66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3880,13 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3929,23 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3988,23 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3174,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -3189,28 +4027,43 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="P70" s="3">
         <v>800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="Q70" s="3">
         <v>700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="R70" s="3">
         <v>500</v>
       </c>
-      <c r="N70" s="3">
+      <c r="S70" s="3">
         <v>400</v>
       </c>
-      <c r="O70" s="3">
+      <c r="T70" s="3">
         <v>400</v>
       </c>
-      <c r="P70" s="3">
+      <c r="U70" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +4106,82 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="I72" s="3">
         <v>-7500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="J72" s="3">
         <v>-7600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="K72" s="3">
         <v>-7600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="L72" s="3">
         <v>-7600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="M72" s="3">
         <v>-8100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="N72" s="3">
         <v>-9000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="O72" s="3">
         <v>-8500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="P72" s="3">
         <v>-8600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="Q72" s="3">
         <v>-8700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="R72" s="3">
         <v>-8600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="S72" s="3">
         <v>-8800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="T72" s="3">
         <v>-9100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="U72" s="3">
         <v>-8900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +4224,23 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +4283,23 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +4342,82 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G76" s="3">
         <v>2500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J76" s="3">
         <v>4100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="K76" s="3">
         <v>4100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="L76" s="3">
         <v>4100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="M76" s="3">
         <v>3800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="N76" s="3">
         <v>2900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="O76" s="3">
         <v>2600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="P76" s="3">
         <v>2500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="Q76" s="3">
         <v>2400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="R76" s="3">
         <v>2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="S76" s="3">
         <v>2700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="T76" s="3">
         <v>2200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="U76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +4460,87 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3575,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -3584,34 +4557,49 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4616,13 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4665,23 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4724,23 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4783,23 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4842,23 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4901,23 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4960,82 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>300</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="P89" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>300</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,43 +5052,48 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
@@ -3998,8 +5101,23 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +5160,23 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,43 +5219,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4130,8 +5278,23 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +5311,13 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +5360,23 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +5419,23 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +5478,23 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +5537,82 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="Q100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +5655,23 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4421,39 +5679,54 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACGX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACGX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>ACGX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,308 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G8" s="3">
         <v>2500</v>
       </c>
-      <c r="E8" s="3">
-        <v>6900</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I8" s="3">
         <v>4500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>2400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>2700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>2800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>5300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>2500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>3800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>3400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>3100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>5000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>4500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>4600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>9300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="V8" s="3">
         <v>5100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="W8" s="3">
         <v>3400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="X8" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="E9" s="3">
-        <v>5100</v>
+        <v>4100</v>
       </c>
       <c r="F9" s="3">
-        <v>3400</v>
+        <v>2100</v>
       </c>
       <c r="G9" s="3">
         <v>1800</v>
       </c>
       <c r="H9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K9" s="3">
         <v>2000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>2100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>3900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>1800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>1700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>2500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
         <v>2500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="R9" s="3">
         <v>4100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="S9" s="3">
         <v>3600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="T9" s="3">
         <v>3700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="U9" s="3">
         <v>7500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="V9" s="3">
         <v>3900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="W9" s="3">
         <v>2300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="X9" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>500</v>
+      </c>
+      <c r="G10" s="3">
         <v>700</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>600</v>
       </c>
       <c r="H10" s="3">
         <v>700</v>
       </c>
       <c r="I10" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="J10" s="3">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K10" s="3">
         <v>700</v>
       </c>
       <c r="L10" s="3">
+        <v>700</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N10" s="3">
+        <v>700</v>
+      </c>
+      <c r="O10" s="3">
         <v>2100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>900</v>
-      </c>
-      <c r="N10" s="3">
-        <v>600</v>
-      </c>
-      <c r="O10" s="3">
-        <v>900</v>
       </c>
       <c r="P10" s="3">
         <v>900</v>
       </c>
       <c r="Q10" s="3">
+        <v>600</v>
+      </c>
+      <c r="R10" s="3">
         <v>900</v>
       </c>
-      <c r="R10" s="3">
-        <v>1800</v>
-      </c>
       <c r="S10" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T10" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="U10" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +988,11 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1050,17 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1118,17 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1186,17 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1254,17 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,81 +1283,93 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="E17" s="3">
-        <v>6700</v>
+        <v>5100</v>
       </c>
       <c r="F17" s="3">
-        <v>4500</v>
+        <v>2600</v>
       </c>
       <c r="G17" s="3">
         <v>2300</v>
       </c>
       <c r="H17" s="3">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="I17" s="3">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="J17" s="3">
-        <v>5300</v>
+        <v>2300</v>
       </c>
       <c r="K17" s="3">
         <v>2500</v>
       </c>
       <c r="L17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O17" s="3">
         <v>3700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>3200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>3500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>5000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>4700</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>4500</v>
-      </c>
-      <c r="R17" s="3">
-        <v>8900</v>
       </c>
       <c r="S17" s="3">
         <v>4700</v>
       </c>
       <c r="T17" s="3">
+        <v>4500</v>
+      </c>
+      <c r="U17" s="3">
+        <v>8900</v>
+      </c>
+      <c r="V17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="W17" s="3">
         <v>3400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="X17" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>200</v>
-      </c>
-      <c r="E18" s="3">
-        <v>200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>100</v>
       </c>
       <c r="H18" s="3">
         <v>200</v>
@@ -1288,43 +1378,52 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>400</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,23 +1445,26 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1376,37 +1478,46 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1464,8 +1575,17 @@
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,67 +1643,85 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>300</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1591,22 +1729,22 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1641,8 +1779,17 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1847,153 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
         <v>200</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>200</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +2051,17 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +2119,17 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2187,17 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,23 +2255,32 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2084,96 +2294,114 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>200</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2459,158 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
         <v>200</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2632,11 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,55 +2658,58 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
-      </c>
-      <c r="R41" s="3">
-        <v>200</v>
       </c>
       <c r="S41" s="3">
         <v>200</v>
@@ -2457,10 +2718,19 @@
         <v>100</v>
       </c>
       <c r="U41" s="3">
+        <v>200</v>
+      </c>
+      <c r="V41" s="3">
+        <v>200</v>
+      </c>
+      <c r="W41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2485,58 +2755,67 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3">
         <v>700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="S42" s="3">
         <v>700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="T42" s="3">
         <v>700</v>
-      </c>
-      <c r="R42" s="3">
-        <v>600</v>
-      </c>
-      <c r="S42" s="3">
-        <v>600</v>
-      </c>
-      <c r="T42" s="3">
-        <v>600</v>
       </c>
       <c r="U42" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>600</v>
+      </c>
+      <c r="W42" s="3">
+        <v>600</v>
+      </c>
+      <c r="X42" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="E43" s="3">
         <v>1600</v>
       </c>
       <c r="F43" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="G43" s="3">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="H43" s="3">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="I43" s="3">
         <v>2000</v>
@@ -2545,107 +2824,125 @@
         <v>2100</v>
       </c>
       <c r="K43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M43" s="3">
         <v>2100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O43" s="3">
         <v>2300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>2200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>1300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="R43" s="3">
         <v>2400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="S43" s="3">
         <v>1900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="T43" s="3">
         <v>2300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="U43" s="3">
         <v>2500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="V43" s="3">
         <v>2800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="W43" s="3">
         <v>1900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="X43" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F44" s="3">
         <v>1200</v>
       </c>
-      <c r="E44" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>800</v>
-      </c>
       <c r="G44" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H44" s="3">
         <v>1100</v>
       </c>
       <c r="I44" s="3">
+        <v>800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L44" s="3">
         <v>1200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1700</v>
       </c>
       <c r="M44" s="3">
         <v>1800</v>
       </c>
       <c r="N44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O44" s="3">
         <v>1700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R44" s="3">
         <v>1600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="S44" s="3">
         <v>1500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="T44" s="3">
         <v>1400</v>
-      </c>
-      <c r="R44" s="3">
-        <v>1300</v>
-      </c>
-      <c r="S44" s="3">
-        <v>1400</v>
-      </c>
-      <c r="T44" s="3">
-        <v>1500</v>
       </c>
       <c r="U44" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X44" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>400</v>
@@ -2654,35 +2951,35 @@
         <v>400</v>
       </c>
       <c r="H45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J45" s="3">
         <v>400</v>
       </c>
       <c r="K45" s="3">
+        <v>500</v>
+      </c>
+      <c r="L45" s="3">
+        <v>500</v>
+      </c>
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
+        <v>400</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2692,11 +2989,20 @@
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2704,58 +3010,67 @@
         <v>3500</v>
       </c>
       <c r="E46" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G46" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H46" s="3">
         <v>3100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>3400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>3700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>3600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>3800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>4400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>4500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>4600</v>
-      </c>
-      <c r="M46" s="3">
-        <v>4300</v>
-      </c>
-      <c r="N46" s="3">
-        <v>3500</v>
-      </c>
-      <c r="O46" s="3">
-        <v>4800</v>
       </c>
       <c r="P46" s="3">
         <v>4300</v>
       </c>
       <c r="Q46" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R46" s="3">
+        <v>4800</v>
+      </c>
+      <c r="S46" s="3">
+        <v>4300</v>
+      </c>
+      <c r="T46" s="3">
         <v>4600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="U46" s="3">
         <v>4600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="V46" s="3">
         <v>4900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="W46" s="3">
         <v>4100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="X46" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2769,13 +3084,13 @@
         <v>200</v>
       </c>
       <c r="G47" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="H47" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="I47" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="J47" s="3">
         <v>900</v>
@@ -2787,22 +3102,22 @@
         <v>900</v>
       </c>
       <c r="M47" s="3">
+        <v>900</v>
+      </c>
+      <c r="N47" s="3">
+        <v>900</v>
+      </c>
+      <c r="O47" s="3">
+        <v>900</v>
+      </c>
+      <c r="P47" s="3">
         <v>800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="Q47" s="3">
         <v>700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="R47" s="3">
         <v>200</v>
-      </c>
-      <c r="P47" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>100</v>
-      </c>
-      <c r="R47" s="3">
-        <v>100</v>
       </c>
       <c r="S47" s="3">
         <v>200</v>
@@ -2810,28 +3125,37 @@
       <c r="T47" s="3">
         <v>100</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>100</v>
+      </c>
+      <c r="V47" s="3">
+        <v>200</v>
+      </c>
+      <c r="W47" s="3">
+        <v>100</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>400</v>
@@ -2846,7 +3170,7 @@
         <v>400</v>
       </c>
       <c r="M48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N48" s="3">
         <v>400</v>
@@ -2855,25 +3179,34 @@
         <v>400</v>
       </c>
       <c r="P48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q48" s="3">
         <v>400</v>
       </c>
       <c r="R48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U48" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>300</v>
+      </c>
+      <c r="W48" s="3">
+        <v>300</v>
+      </c>
+      <c r="X48" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2883,26 +3216,26 @@
       <c r="E49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3">
         <v>100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1200</v>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M49" s="3">
         <v>1200</v>
@@ -2931,8 +3264,17 @@
       <c r="U49" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X49" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3332,17 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3400,17 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3064,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -3085,16 +3445,16 @@
         <v>100</v>
       </c>
       <c r="N52" s="3">
+        <v>100</v>
+      </c>
+      <c r="O52" s="3">
+        <v>100</v>
+      </c>
+      <c r="P52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="3">
         <v>200</v>
-      </c>
-      <c r="O52" s="3">
-        <v>300</v>
-      </c>
-      <c r="P52" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>300</v>
       </c>
       <c r="R52" s="3">
         <v>300</v>
@@ -3103,13 +3463,22 @@
         <v>300</v>
       </c>
       <c r="T52" s="3">
+        <v>300</v>
+      </c>
+      <c r="U52" s="3">
+        <v>300</v>
+      </c>
+      <c r="V52" s="3">
+        <v>300</v>
+      </c>
+      <c r="W52" s="3">
         <v>200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="X52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,8 +3536,17 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3176,58 +3554,67 @@
         <v>3700</v>
       </c>
       <c r="E54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H54" s="3">
         <v>3500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>4200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>5000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>5000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>5200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>7100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>7200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>7200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>6800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>6000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>6900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>6400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>6700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>6600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>7000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="W54" s="3">
         <v>5900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="X54" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3636,11 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3662,11 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3281,84 +3674,93 @@
         <v>1500</v>
       </c>
       <c r="E57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1800</v>
       </c>
       <c r="K57" s="3">
         <v>1800</v>
       </c>
       <c r="L57" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M57" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="N57" s="3">
         <v>1800</v>
       </c>
       <c r="O57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R57" s="3">
         <v>2200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1900</v>
       </c>
       <c r="S57" s="3">
         <v>2000</v>
       </c>
       <c r="T57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W57" s="3">
         <v>1800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="X57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
+        <v>400</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1100</v>
       </c>
       <c r="L58" s="3">
         <v>1000</v>
@@ -3367,19 +3769,19 @@
         <v>1000</v>
       </c>
       <c r="N58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R58" s="3">
         <v>1100</v>
-      </c>
-      <c r="P58" s="3">
-        <v>900</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>900</v>
-      </c>
-      <c r="R58" s="3">
-        <v>900</v>
       </c>
       <c r="S58" s="3">
         <v>900</v>
@@ -3388,31 +3790,40 @@
         <v>900</v>
       </c>
       <c r="U58" s="3">
+        <v>900</v>
+      </c>
+      <c r="V58" s="3">
+        <v>900</v>
+      </c>
+      <c r="W58" s="3">
+        <v>900</v>
+      </c>
+      <c r="X58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>700</v>
+      </c>
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3428,88 +3839,106 @@
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="W59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="X59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>2500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>2500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>2500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2900</v>
-      </c>
-      <c r="L60" s="3">
-        <v>3000</v>
       </c>
       <c r="M60" s="3">
         <v>2800</v>
       </c>
       <c r="N60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P60" s="3">
         <v>2800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R60" s="3">
         <v>3200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>2900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>3200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>3100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>3300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>2800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="X60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3520,37 +3949,37 @@
         <v>200</v>
       </c>
       <c r="F61" s="3">
+        <v>200</v>
+      </c>
+      <c r="G61" s="3">
+        <v>200</v>
+      </c>
+      <c r="H61" s="3">
+        <v>200</v>
+      </c>
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>200</v>
-      </c>
-      <c r="J61" s="3">
-        <v>200</v>
-      </c>
       <c r="K61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
       </c>
       <c r="M61" s="3">
+        <v>200</v>
+      </c>
+      <c r="N61" s="3">
+        <v>200</v>
+      </c>
+      <c r="O61" s="3">
+        <v>200</v>
+      </c>
+      <c r="P61" s="3">
         <v>300</v>
-      </c>
-      <c r="N61" s="3">
-        <v>300</v>
-      </c>
-      <c r="O61" s="3">
-        <v>300</v>
-      </c>
-      <c r="P61" s="3">
-        <v>200</v>
       </c>
       <c r="Q61" s="3">
         <v>300</v>
@@ -3559,21 +3988,30 @@
         <v>300</v>
       </c>
       <c r="S61" s="3">
+        <v>200</v>
+      </c>
+      <c r="T61" s="3">
+        <v>300</v>
+      </c>
+      <c r="U61" s="3">
+        <v>300</v>
+      </c>
+      <c r="V61" s="3">
         <v>600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="W61" s="3">
         <v>600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="X61" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>0</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>8</v>
@@ -3590,8 +4028,8 @@
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -3617,8 +4055,8 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
@@ -3626,8 +4064,17 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +4132,17 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4200,17 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,37 +4268,46 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G66" s="3">
         <v>3200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>2600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>3100</v>
       </c>
       <c r="M66" s="3">
         <v>3000</v>
@@ -3842,28 +4316,37 @@
         <v>3100</v>
       </c>
       <c r="O66" s="3">
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="P66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q66" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>3500</v>
       </c>
       <c r="R66" s="3">
         <v>3500</v>
       </c>
       <c r="S66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="T66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="U66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="V66" s="3">
         <v>3900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>3400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="X66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4368,11 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4430,17 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,26 +4498,35 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>700</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -4042,28 +4546,37 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>800</v>
       </c>
-      <c r="P70" s="3">
+      <c r="S70" s="3">
         <v>800</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="T70" s="3">
         <v>700</v>
       </c>
-      <c r="R70" s="3">
+      <c r="U70" s="3">
         <v>500</v>
       </c>
-      <c r="S70" s="3">
+      <c r="V70" s="3">
         <v>400</v>
       </c>
-      <c r="T70" s="3">
+      <c r="W70" s="3">
         <v>400</v>
       </c>
-      <c r="U70" s="3">
+      <c r="X70" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4634,85 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-9300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-9100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-8100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-7400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-7400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-7500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-7600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-7600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-7600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-8100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-9000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-8500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-8700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-8600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-8800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-9100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>-8900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4770,17 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4838,17 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4906,85 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>800</v>
+      </c>
+      <c r="G76" s="3">
         <v>500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>1700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>2500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>2500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>2500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>4100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>4100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>4100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>3800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>2900</v>
-      </c>
-      <c r="O76" s="3">
-        <v>2600</v>
-      </c>
-      <c r="P76" s="3">
-        <v>2500</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>2400</v>
       </c>
       <c r="R76" s="3">
         <v>2600</v>
       </c>
       <c r="S76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V76" s="3">
         <v>2700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>2200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +5042,158 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
         <v>200</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +5215,11 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +5277,17 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5345,17 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5413,17 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5481,17 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5549,17 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5617,85 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
+        <v>400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>300</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5717,11 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5074,50 +5737,59 @@
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5847,17 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,19 +5915,28 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5255,10 +5945,10 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5266,20 +5956,20 @@
       <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
+      <c r="M94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5293,8 +5983,17 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +6015,11 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +6077,17 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +6145,17 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +6213,17 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +6281,85 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I100" s="3">
+        <v>400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
-        <v>400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>200</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-400</v>
       </c>
       <c r="R100" s="3">
         <v>200</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="U100" s="3">
+        <v>200</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +6417,17 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5679,54 +6435,63 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACGX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACGX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>ACGX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,287 +665,296 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E9" s="3">
         <v>2100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1700</v>
-      </c>
-      <c r="P9" s="3">
-        <v>2500</v>
       </c>
       <c r="Q9" s="3">
         <v>2500</v>
       </c>
       <c r="R9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S9" s="3">
         <v>4100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
-      </c>
-      <c r="G10" s="3">
-        <v>700</v>
       </c>
       <c r="H10" s="3">
         <v>700</v>
       </c>
       <c r="I10" s="3">
+        <v>700</v>
+      </c>
+      <c r="J10" s="3">
         <v>1100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
-      </c>
-      <c r="K10" s="3">
-        <v>700</v>
       </c>
       <c r="L10" s="3">
         <v>700</v>
       </c>
       <c r="M10" s="3">
+        <v>700</v>
+      </c>
+      <c r="N10" s="3">
         <v>1400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>600</v>
-      </c>
-      <c r="R10" s="3">
-        <v>900</v>
       </c>
       <c r="S10" s="3">
         <v>900</v>
@@ -954,19 +963,22 @@
         <v>900</v>
       </c>
       <c r="U10" s="3">
+        <v>900</v>
+      </c>
+      <c r="V10" s="3">
         <v>1800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,106 +1311,110 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>200</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1393,37 +1422,40 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
-        <v>100</v>
-      </c>
       <c r="U18" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="V18" s="3">
         <v>400</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,26 +1480,27 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
       </c>
       <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1487,37 +1520,40 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,8 +1620,11 @@
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,37 +1691,40 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
         <v>300</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
@@ -1694,60 +1736,63 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,37 +1904,40 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
         <v>200</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -1898,63 +1949,66 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
         <v>200</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
@@ -1966,34 +2020,37 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,25 +2330,28 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2303,66 +2372,69 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>100</v>
+      </c>
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
         <v>200</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
@@ -2374,34 +2446,37 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,37 +2543,40 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
         <v>200</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
@@ -2510,107 +2588,113 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
       <c r="U41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>200</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2764,8 +2853,8 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
+      <c r="N42" s="3">
+        <v>0</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
@@ -2776,8 +2865,8 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
-        <v>700</v>
+      <c r="R42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S42" s="3">
         <v>700</v>
@@ -2786,7 +2875,7 @@
         <v>700</v>
       </c>
       <c r="U42" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="V42" s="3">
         <v>600</v>
@@ -2797,155 +2886,164 @@
       <c r="X42" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E43" s="3">
         <v>1600</v>
       </c>
       <c r="F43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G43" s="3">
         <v>1700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>2000</v>
       </c>
       <c r="L43" s="3">
         <v>2000</v>
       </c>
       <c r="M43" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="N43" s="3">
         <v>2100</v>
       </c>
       <c r="O43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P43" s="3">
         <v>2300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="E44" s="3">
         <v>1400</v>
       </c>
       <c r="F44" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="G44" s="3">
         <v>1200</v>
       </c>
       <c r="H44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I44" s="3">
         <v>1100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>800</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1100</v>
       </c>
       <c r="K44" s="3">
         <v>1100</v>
       </c>
       <c r="L44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M44" s="3">
         <v>1200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
       </c>
       <c r="F45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G45" s="3">
         <v>400</v>
@@ -2960,13 +3058,13 @@
         <v>400</v>
       </c>
       <c r="K45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L45" s="3">
         <v>500</v>
       </c>
       <c r="M45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N45" s="3">
         <v>400</v>
@@ -2975,13 +3073,13 @@
         <v>400</v>
       </c>
       <c r="P45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
+      <c r="R45" s="3">
+        <v>200</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
@@ -2998,79 +3096,85 @@
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E46" s="3">
         <v>3500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4300</v>
-      </c>
-      <c r="T46" s="3">
-        <v>4600</v>
       </c>
       <c r="U46" s="3">
         <v>4600</v>
       </c>
       <c r="V46" s="3">
+        <v>4600</v>
+      </c>
+      <c r="W46" s="3">
         <v>4900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3093,7 +3197,7 @@
         <v>200</v>
       </c>
       <c r="J47" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="K47" s="3">
         <v>900</v>
@@ -3111,34 +3215,37 @@
         <v>900</v>
       </c>
       <c r="P47" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q47" s="3">
         <v>800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>700</v>
-      </c>
-      <c r="R47" s="3">
-        <v>200</v>
       </c>
       <c r="S47" s="3">
         <v>200</v>
       </c>
       <c r="T47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U47" s="3">
         <v>100</v>
       </c>
       <c r="V47" s="3">
+        <v>100</v>
+      </c>
+      <c r="W47" s="3">
         <v>200</v>
       </c>
-      <c r="W47" s="3">
-        <v>100</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3152,13 +3259,13 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
@@ -3179,10 +3286,10 @@
         <v>400</v>
       </c>
       <c r="P48" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>300</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>400</v>
       </c>
       <c r="R48" s="3">
         <v>400</v>
@@ -3194,7 +3301,7 @@
         <v>400</v>
       </c>
       <c r="U48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V48" s="3">
         <v>300</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3225,11 +3335,11 @@
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="3">
-        <v>100</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3">
+        <v>100</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -3237,8 +3347,8 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
-        <v>1200</v>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N49" s="3">
         <v>1200</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3433,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -3454,10 +3573,10 @@
         <v>100</v>
       </c>
       <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
         <v>200</v>
-      </c>
-      <c r="R52" s="3">
-        <v>300</v>
       </c>
       <c r="S52" s="3">
         <v>300</v>
@@ -3472,13 +3591,16 @@
         <v>300</v>
       </c>
       <c r="W52" s="3">
+        <v>300</v>
+      </c>
+      <c r="X52" s="3">
         <v>200</v>
       </c>
-      <c r="X52" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E54" s="3">
         <v>3700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4200</v>
-      </c>
-      <c r="J54" s="3">
-        <v>5000</v>
       </c>
       <c r="K54" s="3">
         <v>5000</v>
       </c>
       <c r="L54" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M54" s="3">
         <v>5200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7100</v>
-      </c>
-      <c r="N54" s="3">
-        <v>7200</v>
       </c>
       <c r="O54" s="3">
         <v>7200</v>
       </c>
       <c r="P54" s="3">
+        <v>7200</v>
+      </c>
+      <c r="Q54" s="3">
         <v>6800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,114 +3794,118 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1500</v>
       </c>
       <c r="G57" s="3">
         <v>1500</v>
       </c>
       <c r="H57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1800</v>
       </c>
       <c r="N57" s="3">
         <v>1800</v>
       </c>
       <c r="O57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P57" s="3">
         <v>2000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>2000</v>
       </c>
       <c r="T57" s="3">
         <v>2000</v>
       </c>
       <c r="U57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V57" s="3">
         <v>1900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>400</v>
       </c>
       <c r="G58" s="3">
         <v>400</v>
       </c>
       <c r="H58" s="3">
+        <v>400</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>800</v>
       </c>
       <c r="J58" s="3">
         <v>800</v>
       </c>
       <c r="K58" s="3">
+        <v>800</v>
+      </c>
+      <c r="L58" s="3">
         <v>700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1000</v>
       </c>
       <c r="M58" s="3">
         <v>1000</v>
       </c>
       <c r="N58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O58" s="3">
         <v>1100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1000</v>
       </c>
       <c r="P58" s="3">
         <v>1000</v>
@@ -3781,10 +3914,10 @@
         <v>1000</v>
       </c>
       <c r="R58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S58" s="3">
         <v>1100</v>
-      </c>
-      <c r="S58" s="3">
-        <v>900</v>
       </c>
       <c r="T58" s="3">
         <v>900</v>
@@ -3799,33 +3932,36 @@
         <v>900</v>
       </c>
       <c r="X58" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="3">
-        <v>700</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F59" s="3">
         <v>700</v>
       </c>
       <c r="G59" s="3">
+        <v>700</v>
+      </c>
+      <c r="H59" s="3">
         <v>1000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
+      <c r="J59" s="3">
+        <v>200</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
@@ -3848,52 +3984,55 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
       <c r="T59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3">
         <v>300</v>
       </c>
       <c r="V59" s="3">
+        <v>300</v>
+      </c>
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
-        <v>100</v>
-      </c>
       <c r="X59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2500</v>
       </c>
       <c r="K60" s="3">
         <v>2500</v>
@@ -3902,43 +4041,46 @@
         <v>2500</v>
       </c>
       <c r="M60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N60" s="3">
         <v>2800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3000</v>
-      </c>
-      <c r="P60" s="3">
-        <v>2800</v>
       </c>
       <c r="Q60" s="3">
         <v>2800</v>
       </c>
       <c r="R60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="S60" s="3">
         <v>3200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3958,16 +4100,16 @@
         <v>200</v>
       </c>
       <c r="I61" s="3">
+        <v>200</v>
+      </c>
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
-        <v>100</v>
-      </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>200</v>
@@ -3979,7 +4121,7 @@
         <v>200</v>
       </c>
       <c r="P61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q61" s="3">
         <v>300</v>
@@ -3988,33 +4130,36 @@
         <v>300</v>
       </c>
       <c r="S61" s="3">
+        <v>300</v>
+      </c>
+      <c r="T61" s="3">
         <v>200</v>
-      </c>
-      <c r="T61" s="3">
-        <v>300</v>
       </c>
       <c r="U61" s="3">
         <v>300</v>
       </c>
       <c r="V61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="W61" s="3">
         <v>600</v>
       </c>
       <c r="X61" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y61" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
@@ -4037,29 +4182,29 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3000</v>
-      </c>
-      <c r="N66" s="3">
-        <v>3100</v>
       </c>
       <c r="O66" s="3">
         <v>3100</v>
       </c>
       <c r="P66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q66" s="3">
         <v>3000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3100</v>
-      </c>
-      <c r="T66" s="3">
-        <v>3500</v>
       </c>
       <c r="U66" s="3">
         <v>3500</v>
       </c>
       <c r="V66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="W66" s="3">
         <v>3900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4516,7 +4683,7 @@
         <v>700</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -4525,11 +4692,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>700</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -4555,19 +4722,19 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="S70" s="3">
         <v>800</v>
       </c>
       <c r="T70" s="3">
+        <v>800</v>
+      </c>
+      <c r="U70" s="3">
         <v>700</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>500</v>
-      </c>
-      <c r="V70" s="3">
-        <v>400</v>
       </c>
       <c r="W70" s="3">
         <v>400</v>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,40 +4813,43 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-9000</v>
+        <v>-9100</v>
       </c>
       <c r="E72" s="3">
         <v>-9000</v>
       </c>
       <c r="F72" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="G72" s="3">
         <v>-9100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-7400</v>
       </c>
       <c r="K72" s="3">
         <v>-7400</v>
       </c>
       <c r="L72" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="M72" s="3">
         <v>-7500</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-7600</v>
       </c>
       <c r="N72" s="3">
         <v>-7600</v>
@@ -4685,34 +4858,37 @@
         <v>-7600</v>
       </c>
       <c r="P72" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-9100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-8900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,31 +5097,34 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E76" s="3">
         <v>900</v>
       </c>
       <c r="F76" s="3">
+        <v>900</v>
+      </c>
+      <c r="G76" s="3">
         <v>800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1700</v>
-      </c>
-      <c r="J76" s="3">
-        <v>2500</v>
       </c>
       <c r="K76" s="3">
         <v>2500</v>
@@ -4948,7 +5133,7 @@
         <v>2500</v>
       </c>
       <c r="M76" s="3">
-        <v>4100</v>
+        <v>2500</v>
       </c>
       <c r="N76" s="3">
         <v>4100</v>
@@ -4957,34 +5142,37 @@
         <v>4100</v>
       </c>
       <c r="P76" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>3800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,110 +5239,116 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
         <v>200</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
@@ -5166,34 +5360,37 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
       <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
         <v>100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
-      </c>
-      <c r="S89" s="3">
-        <v>300</v>
       </c>
       <c r="T89" s="3">
         <v>300</v>
       </c>
       <c r="U89" s="3">
+        <v>300</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,46 +5939,47 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>100</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
@@ -5770,8 +5990,8 @@
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5782,14 +6002,17 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,13 +6150,16 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>8</v>
@@ -5938,8 +6167,8 @@
       <c r="F94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -5954,25 +6183,25 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>100</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
-        <v>100</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>100</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>
       </c>
       <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
       <c r="X100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6444,17 +6695,17 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -6465,33 +6716,36 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACGX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACGX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,346 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F8" s="3">
         <v>11100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>5000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>4600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>9300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>5100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>3400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F9" s="3">
         <v>8600</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F9" s="3">
-        <v>4100</v>
       </c>
       <c r="G9" s="3">
         <v>2100</v>
       </c>
       <c r="H9" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J9" s="3">
         <v>1800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>4100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>3600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>3700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>7500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>3900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>2300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>700</v>
+      </c>
+      <c r="F10" s="3">
         <v>2500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>700</v>
-      </c>
-      <c r="M10" s="3">
-        <v>700</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1400</v>
       </c>
       <c r="O10" s="3">
         <v>700</v>
       </c>
       <c r="P10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>700</v>
+      </c>
+      <c r="R10" s="3">
         <v>2100</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>900</v>
-      </c>
-      <c r="R10" s="3">
-        <v>600</v>
       </c>
       <c r="S10" s="3">
         <v>900</v>
       </c>
       <c r="T10" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="U10" s="3">
         <v>900</v>
       </c>
       <c r="V10" s="3">
+        <v>900</v>
+      </c>
+      <c r="W10" s="3">
+        <v>900</v>
+      </c>
+      <c r="X10" s="3">
         <v>1800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F17" s="3">
         <v>10900</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5100</v>
       </c>
       <c r="G17" s="3">
         <v>2600</v>
       </c>
       <c r="H17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>5000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>4700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>4500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>8900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>4700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>3400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
         <v>200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
-        <v>100</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
+        <v>100</v>
+      </c>
+      <c r="X18" s="3">
         <v>400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>400</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,32 +1547,34 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1523,37 +1591,43 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1623,8 +1697,14 @@
       <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,43 +1774,49 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>300</v>
       </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
@@ -1739,39 +1825,45 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
-        <v>100</v>
-      </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1782,8 +1874,8 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
+      <c r="H24" s="3">
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1791,14 +1883,14 @@
       <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,25 +2005,31 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>200</v>
@@ -1934,16 +2038,16 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
@@ -1952,51 +2056,57 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
-        <v>100</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>200</v>
@@ -2005,16 +2115,16 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
@@ -2023,34 +2133,40 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
-        <v>100</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,31 +2467,37 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2375,54 +2515,60 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>200</v>
@@ -2431,16 +2577,16 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
@@ -2449,34 +2595,40 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
-        <v>100</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,25 +2698,31 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>200</v>
@@ -2573,16 +2731,16 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
@@ -2591,110 +2749,122 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
-        <v>100</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>100</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +2919,10 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2756,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
+      <c r="G41" s="3">
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2771,19 +2945,19 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
@@ -2810,16 +2984,22 @@
         <v>200</v>
       </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
-        <v>100</v>
-      </c>
       <c r="Y41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2856,11 +3036,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
@@ -2868,20 +3048,20 @@
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="3">
-        <v>700</v>
-      </c>
-      <c r="T42" s="3">
-        <v>700</v>
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U42" s="3">
         <v>700</v>
       </c>
       <c r="V42" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="W42" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="X42" s="3">
         <v>600</v>
@@ -2889,150 +3069,168 @@
       <c r="Y42" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G43" s="3">
         <v>1600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1600</v>
-      </c>
-      <c r="J43" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K43" s="3">
-        <v>2100</v>
       </c>
       <c r="L43" s="3">
         <v>2000</v>
       </c>
       <c r="M43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N43" s="3">
         <v>2000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P43" s="3">
         <v>2100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>2300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>2500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>2800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="E44" s="3">
         <v>1400</v>
       </c>
       <c r="F44" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G44" s="3">
         <v>1400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I44" s="3">
         <v>1200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1200</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>800</v>
       </c>
       <c r="K44" s="3">
         <v>1100</v>
       </c>
       <c r="L44" s="3">
+        <v>800</v>
+      </c>
+      <c r="M44" s="3">
         <v>1100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O44" s="3">
         <v>1200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1900</v>
-      </c>
-      <c r="P44" s="3">
-        <v>1700</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>1800</v>
       </c>
       <c r="R44" s="3">
         <v>1700</v>
       </c>
       <c r="S44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U44" s="3">
         <v>1600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1500</v>
-      </c>
-      <c r="U44" s="3">
-        <v>1400</v>
-      </c>
-      <c r="V44" s="3">
-        <v>1300</v>
       </c>
       <c r="W44" s="3">
         <v>1400</v>
       </c>
       <c r="X44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z44" s="3">
         <v>1500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3040,16 +3238,16 @@
         <v>400</v>
       </c>
       <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>400</v>
+      </c>
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>400</v>
       </c>
       <c r="I45" s="3">
         <v>400</v>
@@ -3061,32 +3259,32 @@
         <v>400</v>
       </c>
       <c r="L45" s="3">
+        <v>400</v>
+      </c>
+      <c r="M45" s="3">
+        <v>400</v>
+      </c>
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
-      </c>
-      <c r="N45" s="3">
-        <v>400</v>
-      </c>
-      <c r="O45" s="3">
-        <v>400</v>
       </c>
       <c r="P45" s="3">
         <v>400</v>
       </c>
       <c r="Q45" s="3">
+        <v>400</v>
+      </c>
+      <c r="R45" s="3">
+        <v>400</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3099,82 +3297,94 @@
       <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F46" s="3">
         <v>3800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3600</v>
       </c>
-      <c r="G46" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J46" s="3">
         <v>3500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>4300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>4600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>4600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>4900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>4100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3200,10 +3410,10 @@
         <v>200</v>
       </c>
       <c r="K47" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="L47" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="M47" s="3">
         <v>900</v>
@@ -3218,42 +3428,48 @@
         <v>900</v>
       </c>
       <c r="Q47" s="3">
+        <v>900</v>
+      </c>
+      <c r="R47" s="3">
+        <v>900</v>
+      </c>
+      <c r="S47" s="3">
         <v>800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>200</v>
       </c>
-      <c r="U47" s="3">
-        <v>100</v>
-      </c>
-      <c r="V47" s="3">
-        <v>100</v>
-      </c>
       <c r="W47" s="3">
+        <v>100</v>
+      </c>
+      <c r="X47" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y47" s="3">
         <v>200</v>
       </c>
-      <c r="X47" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -3262,16 +3478,16 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>400</v>
@@ -3289,13 +3505,13 @@
         <v>400</v>
       </c>
       <c r="Q48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R48" s="3">
         <v>400</v>
       </c>
       <c r="S48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T48" s="3">
         <v>400</v>
@@ -3304,10 +3520,10 @@
         <v>400</v>
       </c>
       <c r="V48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X48" s="3">
         <v>300</v>
@@ -3315,46 +3531,52 @@
       <c r="Y48" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
+      <c r="L49" s="3">
+        <v>100</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1200</v>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P49" s="3">
         <v>1200</v>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3555,10 +3795,10 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
@@ -3576,13 +3816,13 @@
         <v>100</v>
       </c>
       <c r="R52" s="3">
+        <v>100</v>
+      </c>
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+      <c r="T52" s="3">
         <v>200</v>
-      </c>
-      <c r="S52" s="3">
-        <v>300</v>
-      </c>
-      <c r="T52" s="3">
-        <v>300</v>
       </c>
       <c r="U52" s="3">
         <v>300</v>
@@ -3594,13 +3834,19 @@
         <v>300</v>
       </c>
       <c r="X52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z52" s="3">
         <v>200</v>
       </c>
-      <c r="Y52" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,8 +3916,14 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3679,70 +3931,76 @@
         <v>4100</v>
       </c>
       <c r="E54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G54" s="3">
         <v>3700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>6800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>6000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>6900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>6400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>6700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>6600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>7000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>5900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,79 +4055,87 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E57" s="3">
         <v>1500</v>
       </c>
       <c r="F57" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="G57" s="3">
         <v>1500</v>
       </c>
       <c r="H57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1500</v>
       </c>
       <c r="N57" s="3">
         <v>1800</v>
       </c>
       <c r="O57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R57" s="3">
         <v>2000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2000</v>
-      </c>
-      <c r="U57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="V57" s="3">
-        <v>1900</v>
       </c>
       <c r="W57" s="3">
         <v>2000</v>
       </c>
       <c r="X57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Z57" s="3">
         <v>1800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3875,55 +4143,55 @@
         <v>700</v>
       </c>
       <c r="E58" s="3">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>700</v>
+      </c>
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1100</v>
       </c>
       <c r="P58" s="3">
         <v>1000</v>
       </c>
       <c r="Q58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="R58" s="3">
         <v>1000</v>
       </c>
       <c r="S58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U58" s="3">
         <v>1100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>900</v>
-      </c>
-      <c r="U58" s="3">
-        <v>900</v>
       </c>
       <c r="V58" s="3">
         <v>900</v>
@@ -3935,40 +4203,46 @@
         <v>900</v>
       </c>
       <c r="Y58" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3987,29 +4261,35 @@
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
-      <c r="X59" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4017,70 +4297,76 @@
         <v>2400</v>
       </c>
       <c r="E60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2600</v>
-      </c>
       <c r="H60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2500</v>
       </c>
       <c r="M60" s="3">
         <v>2500</v>
       </c>
       <c r="N60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P60" s="3">
         <v>2800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2800</v>
-      </c>
-      <c r="S60" s="3">
-        <v>3200</v>
-      </c>
-      <c r="T60" s="3">
-        <v>2900</v>
       </c>
       <c r="U60" s="3">
         <v>3200</v>
       </c>
       <c r="V60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="W60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="X60" s="3">
         <v>3100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>3300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4103,19 +4389,19 @@
         <v>200</v>
       </c>
       <c r="J61" s="3">
+        <v>200</v>
+      </c>
+      <c r="K61" s="3">
+        <v>200</v>
+      </c>
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
-        <v>100</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>200</v>
@@ -4124,34 +4410,40 @@
         <v>200</v>
       </c>
       <c r="Q61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S61" s="3">
         <v>300</v>
       </c>
       <c r="T61" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U61" s="3">
         <v>300</v>
       </c>
       <c r="V61" s="3">
+        <v>200</v>
+      </c>
+      <c r="W61" s="3">
         <v>300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y61" s="3">
         <v>600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4164,8 +4456,8 @@
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
@@ -4185,32 +4477,32 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
+      <c r="V62" s="3">
+        <v>0</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,8 +4744,14 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4443,49 +4759,49 @@
         <v>2600</v>
       </c>
       <c r="E66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G66" s="3">
         <v>2200</v>
       </c>
-      <c r="F66" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2800</v>
-      </c>
       <c r="H66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J66" s="3">
         <v>3200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2600</v>
       </c>
       <c r="L66" s="3">
         <v>2500</v>
       </c>
       <c r="M66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3100</v>
-      </c>
-      <c r="P66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>3000</v>
       </c>
       <c r="R66" s="3">
         <v>3100</v>
       </c>
       <c r="S66" s="3">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="T66" s="3">
         <v>3100</v>
@@ -4494,19 +4810,25 @@
         <v>3500</v>
       </c>
       <c r="V66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="W66" s="3">
         <v>3500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Y66" s="3">
         <v>3900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>3400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,22 +5004,28 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>700</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -4701,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -4725,28 +5061,34 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>800</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>800</v>
       </c>
-      <c r="U70" s="3">
+      <c r="W70" s="3">
         <v>700</v>
       </c>
-      <c r="V70" s="3">
+      <c r="X70" s="3">
         <v>500</v>
-      </c>
-      <c r="W70" s="3">
-        <v>400</v>
-      </c>
-      <c r="X70" s="3">
-        <v>400</v>
       </c>
       <c r="Y70" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,8 +5158,14 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4828,67 +5176,73 @@
         <v>-9000</v>
       </c>
       <c r="F72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-9000</v>
       </c>
-      <c r="G72" s="3">
-        <v>-9100</v>
-      </c>
       <c r="H72" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="I72" s="3">
         <v>-9100</v>
       </c>
       <c r="J72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="L72" s="3">
         <v>-8100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-7400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-7400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-7500</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-7600</v>
       </c>
       <c r="P72" s="3">
         <v>-7600</v>
       </c>
       <c r="Q72" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="R72" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="S72" s="3">
         <v>-8100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-9000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-8500</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-8700</v>
       </c>
       <c r="V72" s="3">
         <v>-8600</v>
       </c>
       <c r="W72" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="X72" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-8800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-9100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-8900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E76" s="3">
         <v>900</v>
       </c>
       <c r="F76" s="3">
+        <v>800</v>
+      </c>
+      <c r="G76" s="3">
         <v>900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I76" s="3">
         <v>800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1700</v>
-      </c>
-      <c r="K76" s="3">
-        <v>2500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>2500</v>
       </c>
       <c r="M76" s="3">
         <v>2500</v>
       </c>
       <c r="N76" s="3">
-        <v>4100</v>
+        <v>2500</v>
       </c>
       <c r="O76" s="3">
-        <v>4100</v>
+        <v>2500</v>
       </c>
       <c r="P76" s="3">
         <v>4100</v>
       </c>
       <c r="Q76" s="3">
+        <v>4100</v>
+      </c>
+      <c r="R76" s="3">
+        <v>4100</v>
+      </c>
+      <c r="S76" s="3">
         <v>3800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>2700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>2200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,101 +5620,113 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>200</v>
@@ -5345,16 +5735,16 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
@@ -5363,34 +5753,40 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
-        <v>100</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>100</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>200</v>
       </c>
       <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
+        <v>200</v>
+      </c>
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5966,26 +6408,26 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3">
-        <v>100</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>100</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
@@ -5993,11 +6435,11 @@
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -6005,14 +6447,20 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>8</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,25 +6607,31 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -6186,28 +6646,28 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>100</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>100</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +7021,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
-      </c>
-      <c r="H100" s="3">
-        <v>400</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-600</v>
       </c>
       <c r="J100" s="3">
         <v>400</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>-600</v>
       </c>
       <c r="L100" s="3">
+        <v>400</v>
+      </c>
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +7175,14 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6698,20 +7202,20 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -6719,10 +7223,10 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>100</v>
@@ -6731,21 +7235,27 @@
         <v>-100</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
         <v>-100</v>
       </c>
       <c r="V102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACGX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACGX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>ACGX</t>
   </si>
@@ -2941,8 +2941,8 @@
       <c r="H41" s="3">
         <v>0</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/ACGX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACGX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>ACGX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,209 +785,215 @@
         <v>3000</v>
       </c>
       <c r="E8" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F8" s="3">
         <v>2900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="E9" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F9" s="3">
         <v>2200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1700</v>
-      </c>
-      <c r="S9" s="3">
-        <v>2500</v>
       </c>
       <c r="T9" s="3">
         <v>2500</v>
       </c>
       <c r="U9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V9" s="3">
         <v>4100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F10" s="3">
+        <v>700</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
-        <v>700</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G10" s="3">
-        <v>600</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
-      </c>
-      <c r="J10" s="3">
-        <v>700</v>
       </c>
       <c r="K10" s="3">
         <v>700</v>
       </c>
       <c r="L10" s="3">
+        <v>700</v>
+      </c>
+      <c r="M10" s="3">
         <v>1100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
-      </c>
-      <c r="N10" s="3">
-        <v>700</v>
       </c>
       <c r="O10" s="3">
         <v>700</v>
       </c>
       <c r="P10" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>600</v>
-      </c>
-      <c r="U10" s="3">
-        <v>900</v>
       </c>
       <c r="V10" s="3">
         <v>900</v>
@@ -992,19 +1002,22 @@
         <v>900</v>
       </c>
       <c r="X10" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y10" s="3">
         <v>1800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,124 +1392,128 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="E17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F17" s="3">
         <v>2800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
         <v>100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>200</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1491,37 +1521,40 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>100</v>
+      </c>
+      <c r="T18" s="3">
         <v>200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
-        <v>100</v>
-      </c>
       <c r="X18" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="Y18" s="3">
         <v>400</v>
       </c>
       <c r="Z18" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,35 +1582,36 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
       </c>
       <c r="J20" s="3">
+        <v>200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1597,37 +1631,40 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,46 +1820,49 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
         <v>300</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -1831,34 +1874,37 @@
         <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1869,31 +1915,31 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,46 +2060,49 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
         <v>200</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -2062,72 +2114,75 @@
         <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
         <v>200</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -2139,34 +2194,37 @@
         <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,34 +2540,37 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2521,75 +2591,78 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
         <v>200</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
@@ -2601,34 +2674,37 @@
         <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,46 +2780,49 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
         <v>200</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
@@ -2755,116 +2834,122 @@
         <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2939,67 +3026,70 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
-        <v>100</v>
-      </c>
       <c r="X41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
         <v>200</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3042,8 +3132,8 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
+      <c r="Q42" s="3">
+        <v>0</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
@@ -3054,8 +3144,8 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3">
-        <v>700</v>
+      <c r="U42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V42" s="3">
         <v>700</v>
@@ -3064,7 +3154,7 @@
         <v>700</v>
       </c>
       <c r="X42" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Y42" s="3">
         <v>600</v>
@@ -3075,16 +3165,19 @@
       <c r="AA42" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E43" s="3">
         <v>2000</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1700</v>
       </c>
       <c r="F43" s="3">
         <v>1700</v>
@@ -3096,64 +3189,67 @@
         <v>1600</v>
       </c>
       <c r="I43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J43" s="3">
         <v>1700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>2000</v>
       </c>
       <c r="O43" s="3">
         <v>2000</v>
       </c>
       <c r="P43" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="Q43" s="3">
         <v>2100</v>
       </c>
       <c r="R43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S43" s="3">
         <v>2300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3164,7 +3260,7 @@
         <v>1400</v>
       </c>
       <c r="F44" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="G44" s="3">
         <v>1400</v>
@@ -3173,64 +3269,67 @@
         <v>1400</v>
       </c>
       <c r="I44" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="J44" s="3">
         <v>1200</v>
       </c>
       <c r="K44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L44" s="3">
         <v>1100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>800</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1100</v>
       </c>
       <c r="N44" s="3">
         <v>1100</v>
       </c>
       <c r="O44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P44" s="3">
         <v>1200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3250,7 +3349,7 @@
         <v>500</v>
       </c>
       <c r="I45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J45" s="3">
         <v>400</v>
@@ -3265,13 +3364,13 @@
         <v>400</v>
       </c>
       <c r="N45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O45" s="3">
         <v>500</v>
       </c>
       <c r="P45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q45" s="3">
         <v>400</v>
@@ -3280,13 +3379,13 @@
         <v>400</v>
       </c>
       <c r="S45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
+      <c r="U45" s="3">
+        <v>200</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>8</v>
@@ -3303,88 +3402,94 @@
       <c r="Z45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E46" s="3">
         <v>3900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3600</v>
-      </c>
-      <c r="F46" s="3">
-        <v>3800</v>
       </c>
       <c r="G46" s="3">
         <v>3500</v>
       </c>
       <c r="H46" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I46" s="3">
         <v>3600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4300</v>
-      </c>
-      <c r="W46" s="3">
-        <v>4600</v>
       </c>
       <c r="X46" s="3">
         <v>4600</v>
       </c>
       <c r="Y46" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Z46" s="3">
         <v>4900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3416,7 +3521,7 @@
         <v>200</v>
       </c>
       <c r="M47" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="N47" s="3">
         <v>900</v>
@@ -3434,34 +3539,37 @@
         <v>900</v>
       </c>
       <c r="S47" s="3">
+        <v>900</v>
+      </c>
+      <c r="T47" s="3">
         <v>800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>700</v>
-      </c>
-      <c r="U47" s="3">
-        <v>200</v>
       </c>
       <c r="V47" s="3">
         <v>200</v>
       </c>
       <c r="W47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X47" s="3">
         <v>100</v>
       </c>
       <c r="Y47" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z47" s="3">
         <v>200</v>
       </c>
-      <c r="Z47" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3472,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -3484,13 +3592,13 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>400</v>
@@ -3511,10 +3619,10 @@
         <v>400</v>
       </c>
       <c r="S48" s="3">
+        <v>400</v>
+      </c>
+      <c r="T48" s="3">
         <v>300</v>
-      </c>
-      <c r="T48" s="3">
-        <v>400</v>
       </c>
       <c r="U48" s="3">
         <v>400</v>
@@ -3526,7 +3634,7 @@
         <v>400</v>
       </c>
       <c r="X48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y48" s="3">
         <v>300</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3563,14 +3674,14 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3">
-        <v>100</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3">
+        <v>100</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
@@ -3578,8 +3689,8 @@
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P49" s="3">
-        <v>1200</v>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q49" s="3">
         <v>1200</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3801,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
@@ -3822,10 +3942,10 @@
         <v>100</v>
       </c>
       <c r="T52" s="3">
+        <v>100</v>
+      </c>
+      <c r="U52" s="3">
         <v>200</v>
-      </c>
-      <c r="U52" s="3">
-        <v>300</v>
       </c>
       <c r="V52" s="3">
         <v>300</v>
@@ -3840,13 +3960,16 @@
         <v>300</v>
       </c>
       <c r="Z52" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA52" s="3">
         <v>200</v>
       </c>
-      <c r="AA52" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3900</v>
-      </c>
-      <c r="F54" s="3">
-        <v>4100</v>
       </c>
       <c r="G54" s="3">
         <v>3700</v>
       </c>
       <c r="H54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I54" s="3">
         <v>3800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>5000</v>
       </c>
       <c r="N54" s="3">
         <v>5000</v>
       </c>
       <c r="O54" s="3">
+        <v>5000</v>
+      </c>
+      <c r="P54" s="3">
         <v>5200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7100</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>7200</v>
       </c>
       <c r="R54" s="3">
         <v>7200</v>
       </c>
       <c r="S54" s="3">
+        <v>7200</v>
+      </c>
+      <c r="T54" s="3">
         <v>6800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,132 +4187,136 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1600</v>
       </c>
       <c r="G57" s="3">
         <v>1500</v>
       </c>
       <c r="H57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I57" s="3">
         <v>1400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1500</v>
       </c>
       <c r="J57" s="3">
         <v>1500</v>
       </c>
       <c r="K57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1800</v>
       </c>
       <c r="Q57" s="3">
         <v>1800</v>
       </c>
       <c r="R57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S57" s="3">
         <v>2000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2200</v>
-      </c>
-      <c r="V57" s="3">
-        <v>2000</v>
       </c>
       <c r="W57" s="3">
         <v>2000</v>
       </c>
       <c r="X57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y57" s="3">
         <v>1900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>700</v>
       </c>
       <c r="G58" s="3">
         <v>500</v>
       </c>
       <c r="H58" s="3">
+        <v>500</v>
+      </c>
+      <c r="I58" s="3">
         <v>600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>400</v>
       </c>
       <c r="J58" s="3">
         <v>400</v>
       </c>
       <c r="K58" s="3">
+        <v>400</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>800</v>
       </c>
       <c r="M58" s="3">
         <v>800</v>
       </c>
       <c r="N58" s="3">
+        <v>800</v>
+      </c>
+      <c r="O58" s="3">
         <v>700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1000</v>
       </c>
       <c r="P58" s="3">
         <v>1000</v>
       </c>
       <c r="Q58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R58" s="3">
         <v>1100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1000</v>
       </c>
       <c r="S58" s="3">
         <v>1000</v>
@@ -4191,10 +4325,10 @@
         <v>1000</v>
       </c>
       <c r="U58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V58" s="3">
         <v>1100</v>
-      </c>
-      <c r="V58" s="3">
-        <v>900</v>
       </c>
       <c r="W58" s="3">
         <v>900</v>
@@ -4209,10 +4343,13 @@
         <v>900</v>
       </c>
       <c r="AA58" s="3">
+        <v>900</v>
+      </c>
+      <c r="AB58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4222,29 +4359,29 @@
       <c r="E59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3">
-        <v>700</v>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I59" s="3">
         <v>700</v>
       </c>
       <c r="J59" s="3">
+        <v>700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
+      <c r="M59" s="3">
+        <v>200</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
@@ -4267,61 +4404,64 @@
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
       <c r="W59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X59" s="3">
         <v>300</v>
       </c>
       <c r="Y59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z59" s="3">
         <v>400</v>
       </c>
-      <c r="Z59" s="3">
-        <v>100</v>
-      </c>
       <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2400</v>
       </c>
       <c r="G60" s="3">
         <v>2000</v>
       </c>
       <c r="H60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2500</v>
       </c>
       <c r="N60" s="3">
         <v>2500</v>
@@ -4330,43 +4470,46 @@
         <v>2500</v>
       </c>
       <c r="P60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3000</v>
-      </c>
-      <c r="S60" s="3">
-        <v>2800</v>
       </c>
       <c r="T60" s="3">
         <v>2800</v>
       </c>
       <c r="U60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="V60" s="3">
         <v>3200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4395,16 +4538,16 @@
         <v>200</v>
       </c>
       <c r="L61" s="3">
+        <v>200</v>
+      </c>
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
-        <v>100</v>
-      </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>200</v>
@@ -4416,7 +4559,7 @@
         <v>200</v>
       </c>
       <c r="S61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T61" s="3">
         <v>300</v>
@@ -4425,42 +4568,45 @@
         <v>300</v>
       </c>
       <c r="V61" s="3">
+        <v>300</v>
+      </c>
+      <c r="W61" s="3">
         <v>200</v>
-      </c>
-      <c r="W61" s="3">
-        <v>300</v>
       </c>
       <c r="X61" s="3">
         <v>300</v>
       </c>
       <c r="Y61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Z61" s="3">
         <v>600</v>
       </c>
       <c r="AA61" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB61" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
@@ -4483,29 +4629,29 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>8</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2600</v>
       </c>
       <c r="G66" s="3">
         <v>2200</v>
       </c>
       <c r="H66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>3100</v>
       </c>
       <c r="R66" s="3">
         <v>3100</v>
       </c>
       <c r="S66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="T66" s="3">
         <v>3000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3100</v>
-      </c>
-      <c r="W66" s="3">
-        <v>3500</v>
       </c>
       <c r="X66" s="3">
         <v>3500</v>
       </c>
       <c r="Y66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Z66" s="3">
         <v>3900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,16 +5175,19 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E70" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>700</v>
@@ -5028,20 +5196,20 @@
         <v>700</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>700</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>700</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -5067,19 +5235,19 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="V70" s="3">
         <v>800</v>
       </c>
       <c r="W70" s="3">
+        <v>800</v>
+      </c>
+      <c r="X70" s="3">
         <v>700</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>500</v>
-      </c>
-      <c r="Y70" s="3">
-        <v>400</v>
       </c>
       <c r="Z70" s="3">
         <v>400</v>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,19 +5335,22 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9000</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-9100</v>
       </c>
       <c r="G72" s="3">
         <v>-9000</v>
@@ -5185,28 +5359,28 @@
         <v>-9000</v>
       </c>
       <c r="I72" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="J72" s="3">
         <v>-9100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-7400</v>
       </c>
       <c r="N72" s="3">
         <v>-7400</v>
       </c>
       <c r="O72" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="P72" s="3">
         <v>-7500</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-7600</v>
       </c>
       <c r="Q72" s="3">
         <v>-7600</v>
@@ -5215,34 +5389,37 @@
         <v>-7600</v>
       </c>
       <c r="S72" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="T72" s="3">
         <v>-8100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-9000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-8700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-8600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-8800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-9100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-8900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,40 +5655,43 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>900</v>
-      </c>
-      <c r="F76" s="3">
-        <v>800</v>
       </c>
       <c r="G76" s="3">
         <v>900</v>
       </c>
       <c r="H76" s="3">
+        <v>900</v>
+      </c>
+      <c r="I76" s="3">
         <v>1600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1700</v>
-      </c>
-      <c r="M76" s="3">
-        <v>2500</v>
       </c>
       <c r="N76" s="3">
         <v>2500</v>
@@ -5514,7 +5700,7 @@
         <v>2500</v>
       </c>
       <c r="P76" s="3">
-        <v>4100</v>
+        <v>2500</v>
       </c>
       <c r="Q76" s="3">
         <v>4100</v>
@@ -5523,34 +5709,37 @@
         <v>4100</v>
       </c>
       <c r="S76" s="3">
+        <v>4100</v>
+      </c>
+      <c r="T76" s="3">
         <v>3800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,128 +5815,134 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
         <v>200</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
@@ -5759,34 +5954,37 @@
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>300</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L89" s="3">
+        <v>400</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K89" s="3">
-        <v>400</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T89" s="3">
-        <v>200</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="V89" s="3">
-        <v>300</v>
       </c>
       <c r="W89" s="3">
         <v>300</v>
       </c>
       <c r="X89" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
         <v>0</v>
       </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6414,23 +6635,23 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
@@ -6441,8 +6662,8 @@
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6453,14 +6674,17 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6627,14 +6857,14 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -6652,25 +6882,25 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
-        <v>100</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>100</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
       </c>
       <c r="I100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
       <c r="AA100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7208,17 +7460,17 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -7229,33 +7481,36 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
-        <v>100</v>
-      </c>
       <c r="Y102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACGX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACGX_QTR_FIN.xlsx
@@ -6621,10 +6621,10 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/ACGX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACGX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>ACGX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,384 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="E8" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F8" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G8" s="3">
         <v>5800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>11100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>3100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>5000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>4500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>4600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>9300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>5100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>3400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H9" s="3">
         <v>2200</v>
       </c>
-      <c r="E9" s="3">
-        <v>4600</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>8600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>4100</v>
       </c>
       <c r="J9" s="3">
         <v>2100</v>
       </c>
       <c r="K9" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M9" s="3">
         <v>1800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>3900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>2500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>2500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>4100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>3600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>3700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>7500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>3900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>2300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G10" s="3">
         <v>1200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>700</v>
-      </c>
-      <c r="P10" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1400</v>
       </c>
       <c r="R10" s="3">
         <v>700</v>
       </c>
       <c r="S10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T10" s="3">
+        <v>700</v>
+      </c>
+      <c r="U10" s="3">
         <v>2100</v>
-      </c>
-      <c r="T10" s="3">
-        <v>900</v>
-      </c>
-      <c r="U10" s="3">
-        <v>600</v>
       </c>
       <c r="V10" s="3">
         <v>900</v>
       </c>
       <c r="W10" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="X10" s="3">
         <v>900</v>
       </c>
       <c r="Y10" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA10" s="3">
         <v>1800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>1200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>1100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2900</v>
+        <v>800</v>
       </c>
       <c r="E17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G17" s="3">
         <v>5900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>10900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>5100</v>
       </c>
       <c r="J17" s="3">
         <v>2600</v>
       </c>
       <c r="K17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>5000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>4700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>4500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>8900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>4700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>3400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>100</v>
+      </c>
+      <c r="V18" s="3">
         <v>200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA18" s="3">
         <v>400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>400</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1598,26 +1665,26 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1634,37 +1701,43 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-200</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1743,8 +1816,14 @@
       <c r="AB21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,8 +1902,14 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1838,37 +1923,37 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>300</v>
       </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>300</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
@@ -1877,34 +1962,40 @@
         <v>0</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-      <c r="W23" s="3">
-        <v>100</v>
-      </c>
       <c r="X23" s="3">
         <v>0</v>
       </c>
       <c r="Y23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1918,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1929,8 +2020,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
+      <c r="K24" s="3">
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1938,14 +2029,14 @@
       <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,8 +2160,14 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2078,19 +2181,19 @@
         <v>100</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>200</v>
@@ -2099,16 +2202,16 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
@@ -2117,34 +2220,40 @@
         <v>0</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-      <c r="W26" s="3">
-        <v>100</v>
-      </c>
       <c r="X26" s="3">
         <v>0</v>
       </c>
       <c r="Y26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2158,19 +2267,19 @@
         <v>100</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>200</v>
@@ -2179,16 +2288,16 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
@@ -2197,34 +2306,40 @@
         <v>0</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-      <c r="W27" s="3">
-        <v>100</v>
-      </c>
       <c r="X27" s="3">
         <v>0</v>
       </c>
       <c r="Y27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2558,25 +2697,25 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2594,37 +2733,43 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC32" s="3">
         <v>200</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2638,19 +2783,19 @@
         <v>100</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>200</v>
@@ -2659,16 +2804,16 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
@@ -2677,34 +2822,40 @@
         <v>0</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-      <c r="W33" s="3">
-        <v>100</v>
-      </c>
       <c r="X33" s="3">
         <v>0</v>
       </c>
       <c r="Y33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,8 +2934,14 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2798,19 +2955,19 @@
         <v>100</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>200</v>
@@ -2819,16 +2976,16 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
@@ -2837,119 +2994,131 @@
         <v>0</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-      <c r="W35" s="3">
-        <v>100</v>
-      </c>
       <c r="X35" s="3">
         <v>0</v>
       </c>
       <c r="Y35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3179,10 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3023,37 +3196,37 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
+      <c r="L41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
@@ -3080,16 +3253,22 @@
         <v>200</v>
       </c>
       <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
         <v>200</v>
       </c>
-      <c r="AA41" s="3">
-        <v>100</v>
-      </c>
       <c r="AB41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3135,11 +3314,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
@@ -3147,20 +3326,20 @@
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="3">
-        <v>700</v>
-      </c>
-      <c r="W42" s="3">
-        <v>700</v>
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X42" s="3">
         <v>700</v>
       </c>
       <c r="Y42" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Z42" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AA42" s="3">
         <v>600</v>
@@ -3168,96 +3347,108 @@
       <c r="AB42" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1600</v>
       </c>
       <c r="I43" s="3">
         <v>1600</v>
       </c>
       <c r="J43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L43" s="3">
         <v>1700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1600</v>
-      </c>
-      <c r="M43" s="3">
-        <v>2000</v>
-      </c>
-      <c r="N43" s="3">
-        <v>2100</v>
       </c>
       <c r="O43" s="3">
         <v>2000</v>
       </c>
       <c r="P43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>2000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S43" s="3">
         <v>2100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>2200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>2400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>2300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>2500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>2800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>1900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
         <v>1400</v>
@@ -3272,90 +3463,96 @@
         <v>1400</v>
       </c>
       <c r="J44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L44" s="3">
         <v>1200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1200</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M44" s="3">
-        <v>800</v>
       </c>
       <c r="N44" s="3">
         <v>1100</v>
       </c>
       <c r="O44" s="3">
+        <v>800</v>
+      </c>
+      <c r="P44" s="3">
         <v>1100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R44" s="3">
         <v>1200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1900</v>
-      </c>
-      <c r="S44" s="3">
-        <v>1700</v>
-      </c>
-      <c r="T44" s="3">
-        <v>1800</v>
       </c>
       <c r="U44" s="3">
         <v>1700</v>
       </c>
       <c r="V44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X44" s="3">
         <v>1600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1500</v>
-      </c>
-      <c r="X44" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>1300</v>
       </c>
       <c r="Z44" s="3">
         <v>1400</v>
       </c>
       <c r="AA44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AC44" s="3">
         <v>1500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>400</v>
       </c>
       <c r="G45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I45" s="3">
         <v>500</v>
       </c>
       <c r="J45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>400</v>
@@ -3367,32 +3564,32 @@
         <v>400</v>
       </c>
       <c r="O45" s="3">
+        <v>400</v>
+      </c>
+      <c r="P45" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>400</v>
-      </c>
-      <c r="R45" s="3">
-        <v>400</v>
       </c>
       <c r="S45" s="3">
         <v>400</v>
       </c>
       <c r="T45" s="3">
+        <v>400</v>
+      </c>
+      <c r="U45" s="3">
+        <v>400</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3405,91 +3602,103 @@
       <c r="AA45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
         <v>3700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>4300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>3500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>4800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>4300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>4600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>4600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>4900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>4100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3524,10 +3733,10 @@
         <v>200</v>
       </c>
       <c r="N47" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="O47" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="P47" s="3">
         <v>900</v>
@@ -3542,51 +3751,57 @@
         <v>900</v>
       </c>
       <c r="T47" s="3">
+        <v>900</v>
+      </c>
+      <c r="U47" s="3">
+        <v>900</v>
+      </c>
+      <c r="V47" s="3">
         <v>800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>200</v>
       </c>
-      <c r="X47" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>100</v>
-      </c>
       <c r="Z47" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB47" s="3">
         <v>200</v>
       </c>
-      <c r="AA47" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -3595,16 +3810,16 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>400</v>
@@ -3622,13 +3837,13 @@
         <v>400</v>
       </c>
       <c r="T48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U48" s="3">
         <v>400</v>
       </c>
       <c r="V48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W48" s="3">
         <v>400</v>
@@ -3637,10 +3852,10 @@
         <v>400</v>
       </c>
       <c r="Y48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Z48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AA48" s="3">
         <v>300</v>
@@ -3648,8 +3863,14 @@
       <c r="AB48" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3677,26 +3898,26 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
+      <c r="O49" s="3">
+        <v>100</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="3">
-        <v>1200</v>
-      </c>
-      <c r="R49" s="3">
-        <v>1200</v>
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S49" s="3">
         <v>1200</v>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3924,10 +4163,10 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
@@ -3945,13 +4184,13 @@
         <v>100</v>
       </c>
       <c r="U52" s="3">
+        <v>100</v>
+      </c>
+      <c r="V52" s="3">
+        <v>100</v>
+      </c>
+      <c r="W52" s="3">
         <v>200</v>
-      </c>
-      <c r="V52" s="3">
-        <v>300</v>
-      </c>
-      <c r="W52" s="3">
-        <v>300</v>
       </c>
       <c r="X52" s="3">
         <v>300</v>
@@ -3963,13 +4202,19 @@
         <v>300</v>
       </c>
       <c r="AA52" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC52" s="3">
         <v>200</v>
       </c>
-      <c r="AB52" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F54" s="3">
         <v>4000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>7100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>7200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>7200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>6800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>6000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>6900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>6400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>6700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>6600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>7000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>5900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,153 +4447,161 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1500</v>
       </c>
       <c r="H57" s="3">
         <v>1500</v>
       </c>
       <c r="I57" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J57" s="3">
         <v>1500</v>
       </c>
       <c r="K57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1500</v>
       </c>
       <c r="Q57" s="3">
         <v>1800</v>
       </c>
       <c r="R57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S57" s="3">
         <v>1800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U57" s="3">
         <v>2000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>2000</v>
-      </c>
-      <c r="X57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>1900</v>
       </c>
       <c r="Z57" s="3">
         <v>2000</v>
       </c>
       <c r="AA57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AC57" s="3">
         <v>1800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>700</v>
+        <v>2800</v>
       </c>
       <c r="F58" s="3">
         <v>600</v>
       </c>
       <c r="G58" s="3">
+        <v>700</v>
+      </c>
+      <c r="H58" s="3">
+        <v>600</v>
+      </c>
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1100</v>
       </c>
       <c r="S58" s="3">
         <v>1000</v>
       </c>
       <c r="T58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="U58" s="3">
         <v>1000</v>
       </c>
       <c r="V58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X58" s="3">
         <v>1100</v>
-      </c>
-      <c r="W58" s="3">
-        <v>900</v>
-      </c>
-      <c r="X58" s="3">
-        <v>900</v>
       </c>
       <c r="Y58" s="3">
         <v>900</v>
@@ -4346,10 +4613,16 @@
         <v>900</v>
       </c>
       <c r="AB58" s="3">
+        <v>900</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>900</v>
+      </c>
+      <c r="AD58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4362,33 +4635,33 @@
       <c r="F59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4407,117 +4680,129 @@
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
-      <c r="W59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
         <v>300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>400</v>
       </c>
-      <c r="AA59" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2500</v>
       </c>
       <c r="P60" s="3">
         <v>2500</v>
       </c>
       <c r="Q60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S60" s="3">
         <v>2800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2800</v>
-      </c>
-      <c r="V60" s="3">
-        <v>3200</v>
-      </c>
-      <c r="W60" s="3">
-        <v>2900</v>
       </c>
       <c r="X60" s="3">
         <v>3200</v>
       </c>
       <c r="Y60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="AA60" s="3">
         <v>3100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>3300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>2800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>3100</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
@@ -4541,19 +4826,19 @@
         <v>200</v>
       </c>
       <c r="M61" s="3">
+        <v>200</v>
+      </c>
+      <c r="N61" s="3">
+        <v>200</v>
+      </c>
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
-        <v>100</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>200</v>
@@ -4562,34 +4847,40 @@
         <v>200</v>
       </c>
       <c r="T61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V61" s="3">
         <v>300</v>
       </c>
       <c r="W61" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X61" s="3">
         <v>300</v>
       </c>
       <c r="Y61" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z61" s="3">
         <v>300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB61" s="3">
         <v>600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4599,20 +4890,20 @@
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -4632,32 +4923,32 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>8</v>
+      <c r="Y62" s="3">
+        <v>0</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>8</v>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,67 +5217,73 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2300</v>
+        <v>3600</v>
       </c>
       <c r="E66" s="3">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="F66" s="3">
         <v>2300</v>
       </c>
       <c r="G66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I66" s="3">
         <v>2200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2600</v>
       </c>
       <c r="O66" s="3">
         <v>2500</v>
       </c>
       <c r="P66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R66" s="3">
         <v>2700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3100</v>
-      </c>
-      <c r="S66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="T66" s="3">
-        <v>3000</v>
       </c>
       <c r="U66" s="3">
         <v>3100</v>
       </c>
       <c r="V66" s="3">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="W66" s="3">
         <v>3100</v>
@@ -4977,19 +5292,25 @@
         <v>3500</v>
       </c>
       <c r="Y66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Z66" s="3">
         <v>3500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AB66" s="3">
         <v>3900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>3400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5187,19 +5522,19 @@
         <v>600</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F70" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G70" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>700</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J70" s="3">
         <v>700</v>
@@ -5214,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -5238,28 +5573,34 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
         <v>800</v>
       </c>
-      <c r="W70" s="3">
+      <c r="Y70" s="3">
         <v>800</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Z70" s="3">
         <v>700</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="AA70" s="3">
         <v>500</v>
-      </c>
-      <c r="Z70" s="3">
-        <v>400</v>
-      </c>
-      <c r="AA70" s="3">
-        <v>400</v>
       </c>
       <c r="AB70" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,22 +5679,28 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-9000</v>
+        <v>-9900</v>
       </c>
       <c r="E72" s="3">
-        <v>-9100</v>
+        <v>-9800</v>
       </c>
       <c r="F72" s="3">
         <v>-9000</v>
       </c>
       <c r="G72" s="3">
-        <v>-9000</v>
+        <v>-9100</v>
       </c>
       <c r="H72" s="3">
         <v>-9000</v>
@@ -5362,64 +5709,70 @@
         <v>-9000</v>
       </c>
       <c r="J72" s="3">
-        <v>-9100</v>
+        <v>-9000</v>
       </c>
       <c r="K72" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="L72" s="3">
         <v>-9100</v>
       </c>
       <c r="M72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="O72" s="3">
         <v>-8100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-7400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-7400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-7500</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-7600</v>
       </c>
       <c r="S72" s="3">
         <v>-7600</v>
       </c>
       <c r="T72" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="V72" s="3">
         <v>-8100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-9000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-8500</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-8700</v>
       </c>
       <c r="Y72" s="3">
         <v>-8600</v>
       </c>
       <c r="Z72" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-8800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-9100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-8900</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>200</v>
+      </c>
+      <c r="F76" s="3">
         <v>1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1500</v>
-      </c>
-      <c r="F76" s="3">
-        <v>900</v>
-      </c>
-      <c r="G76" s="3">
-        <v>900</v>
       </c>
       <c r="H76" s="3">
         <v>900</v>
       </c>
       <c r="I76" s="3">
+        <v>900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1700</v>
-      </c>
-      <c r="N76" s="3">
-        <v>2500</v>
-      </c>
-      <c r="O76" s="3">
-        <v>2500</v>
       </c>
       <c r="P76" s="3">
         <v>2500</v>
       </c>
       <c r="Q76" s="3">
-        <v>4100</v>
+        <v>2500</v>
       </c>
       <c r="R76" s="3">
-        <v>4100</v>
+        <v>2500</v>
       </c>
       <c r="S76" s="3">
         <v>4100</v>
       </c>
       <c r="T76" s="3">
+        <v>4100</v>
+      </c>
+      <c r="U76" s="3">
+        <v>4100</v>
+      </c>
+      <c r="V76" s="3">
         <v>3800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>2500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>2400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>2600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>2700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>2200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,93 +6195,105 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5918,19 +6307,19 @@
         <v>100</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>200</v>
@@ -5939,16 +6328,16 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
@@ -5957,34 +6346,40 @@
         <v>0</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-      <c r="W81" s="3">
-        <v>100</v>
-      </c>
       <c r="X81" s="3">
         <v>0</v>
       </c>
       <c r="Y81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>-4100</v>
       </c>
       <c r="F89" s="3">
         <v>100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>200</v>
       </c>
       <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
+        <v>200</v>
+      </c>
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6621,43 +7062,43 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>100</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>8</v>
@@ -6665,11 +7106,11 @@
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6677,14 +7118,20 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>8</v>
+      <c r="AA91" s="3">
+        <v>0</v>
       </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,16 +7296,22 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -6860,17 +7319,17 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -6885,28 +7344,28 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>100</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>100</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>100</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7758,100 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>-100</v>
+        <v>600</v>
       </c>
       <c r="F100" s="3">
         <v>-200</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
-      </c>
-      <c r="K100" s="3">
-        <v>400</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-600</v>
       </c>
       <c r="M100" s="3">
         <v>400</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>-600</v>
       </c>
       <c r="O100" s="3">
+        <v>400</v>
+      </c>
+      <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7930,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7463,20 +7966,20 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -7484,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
         <v>100</v>
@@ -7496,21 +7999,27 @@
         <v>-100</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
         <v>-100</v>
       </c>
       <c r="Y102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>
